--- a/web-platform_22_01_dev/static/media/admin/account/export_users.xlsx
+++ b/web-platform_22_01_dev/static/media/admin/account/export_users.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:R90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,20 +489,25 @@
       </c>
       <c r="N1" t="inlineStr">
         <is>
+          <t>Права суперпользователя</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
           <t>Группы доступа</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Электронная почта</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Секретный вопрос</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Секретный ответ</t>
         </is>
@@ -511,57 +516,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Управление предприятия (ЦК)</t>
+          <t>Управа</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Отдел информационных технологий</t>
+          <t>ОИТ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Сектор системного обеспечения</t>
+          <t>Управа</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Тетенков</t>
+          <t>Андриенко</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Вячеслав</t>
+          <t>Богдан</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Алексеевич</t>
+          <t>Николаевич</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>65047</t>
+          <t>931777</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Инженер I  категории (системный)</t>
+          <t>Управа</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>Управа</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>730929301615</t>
+          <t>970801351179</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0WHl7a6sbpya</t>
+          <t>Xs0KXWXI</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -574,65 +579,70 @@
           <t>false</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
       <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Управление предприятия (ЦК)</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Отдел информационных технологий</t>
-        </is>
-      </c>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Сектор системного обеспечения</t>
+          <t>Участок группы подстанций и электросетей</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Стулов</t>
+          <t xml:space="preserve">Стяжкин </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Андрей</t>
+          <t>Иван</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Андреевич</t>
+          <t>Сергеевич</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>931901</t>
+          <t>933018</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Инженер I категории (системный администратор, администратор баз данных)</t>
+          <t>Электромонтёр по эксплуатации распределительных сетей</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>850227350285</t>
+          <t>930911350439</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>wb8FxswzQqOp</t>
+          <t>5e99s4qP</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -645,65 +655,70 @@
           <t>false</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
       <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Управление предприятия (ЦК)</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Отдел информационных технологий</t>
-        </is>
-      </c>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Сектор программного обеспечения</t>
+          <t>Участок группы подстанций и электросетей</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Рожкова</t>
+          <t>Чагин</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Наталья</t>
+          <t>Александр</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Георгиевна</t>
+          <t>Рушанович</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>65020</t>
+          <t>933016</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Инженер-программист I категории</t>
+          <t>Электромонтёр по эксплуатации распределительных сетей</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>771123400344</t>
+          <t>990902350579</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>r5nbUc1uigON</t>
+          <t>V2GoukFy</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -716,65 +731,74 @@
           <t>false</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
       <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Управление предприятия (ЦК)</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Отдел информационных технологий</t>
+          <t>Служба по ремонту оборудования</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Сектор программного обеспечения</t>
+          <t>ремонтники ЦО</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Пышный</t>
+          <t>Курмангалиев</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Виктор</t>
+          <t>Асхат</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Юрьевич</t>
+          <t>Куанышевич</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4405</t>
+          <t>932934</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Инженер-программист I категории</t>
+          <t>Электрогазосварщик</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>831127350161</t>
+          <t>950923351466</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>LkvSKOEkpTwU</t>
+          <t>WYY3xUhF</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -787,65 +811,74 @@
           <t>false</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
       <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Управление предприятия (ЦК)</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Отдел информационных технологий</t>
+          <t>Железнодорожный цех</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Сектор технического обеспечения</t>
+          <t>Участок подвижного состава</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Полозюк</t>
+          <t>Ан</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Владимир</t>
+          <t>Михаил</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Анатольевич</t>
+          <t>Михайлович</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>65086</t>
+          <t>933117</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Техник вычислительного центра</t>
+          <t>Помощник машиниста тягового агрегата (на вывозке горной массы)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>650414350253</t>
+          <t>790225300373</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BbkF3MBVU9Qn</t>
+          <t>DQRx1sZu</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -858,65 +891,74 @@
           <t>false</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
       <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Управление предприятия (ЦК)</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Отдел информационных технологий</t>
+          <t>Горный цех</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Сектор технического обеспечения</t>
+          <t>Участок отвалообразования</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Мозырев</t>
+          <t>Фадеев</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Антон</t>
+          <t>Владимир</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Юрьевич</t>
+          <t>Андреевич</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>932423</t>
+          <t>932670</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Инженер - электронщик</t>
+          <t>Помощник машиниста экскаватора (породных отвалов)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>880903351312</t>
+          <t>991020450297</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>rxTE89kLgypG</t>
+          <t>titasWQs</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -929,65 +971,74 @@
           <t>false</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
       <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Управление предприятия (ЦК)</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Отдел информационных технологий</t>
+          <t>Служба по ремонту оборудования</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Сектор системного обеспечения</t>
+          <t>ремонтники ЦО</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Малышев</t>
+          <t>Зайнутдинов</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Руслан</t>
+          <t>Вадим</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Александрович</t>
+          <t>Евгеньевич</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>930275</t>
+          <t>932628</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Инженер-системотехник</t>
+          <t>Электрогазосварщик</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>881223350281</t>
+          <t>971128350195</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>ipJ1ZG6O43Jg</t>
+          <t>Pb5JRIHL</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1000,65 +1051,74 @@
           <t>false</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
       <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Управление предприятия (ЦК)</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Отдел информационных технологий</t>
+          <t>Служба по ремонту оборудования</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Сектор программного обеспечения</t>
+          <t>ремонтники ЦО</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Драница</t>
+          <t>Дуйсебаев</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ирина</t>
+          <t>Айбек</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Сергеевна</t>
+          <t>Орынбасарович</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3135</t>
+          <t>932417</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Инженер-программист I категории</t>
+          <t>Слесарь по обслуживанию и ремонту оборудования</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>810109400464</t>
+          <t>960517350155</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Sj4sSDv7FTfT</t>
+          <t>uLSnSf8d</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1071,65 +1131,70 @@
           <t>false</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
       <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Управление предприятия (ЦК)</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Отдел информационных технологий</t>
-        </is>
-      </c>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Сектор технического обеспечения</t>
+          <t>Участок группы подстанций и электросетей</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Вахонин</t>
+          <t>Аблякимов</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Александр</t>
+          <t>Жандос</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Сергеевич</t>
+          <t>Мурзабаевич</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>931962</t>
+          <t>932265</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Инженер - электронщик</t>
+          <t>Электромонтёр по эксплуатации распределительных сетей</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>910315350415</t>
+          <t>991003350387</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Yt44lSPJUlDr</t>
+          <t>LKGAM676</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1142,65 +1207,74 @@
           <t>false</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
       <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Управление предприятия (ЦК)</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Отдел информационных технологий</t>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Сектор программного обеспечения</t>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Андриенко</t>
+          <t>Кабылбеков</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Богдан</t>
+          <t>Серик</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Николаевич</t>
+          <t>Сейлханович</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>931777</t>
+          <t>932215</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Техник-программист</t>
+          <t>Электрогазосварщик</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>970801351179</t>
+          <t>690329300833</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>It7qfRidW76q</t>
+          <t>ki9vyUx2</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1213,74 +1287,71 @@
           <t>false</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>bogdandrienko@gmail.com</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
       <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Управление предприятия (ЦК)</t>
+          <t>Автотранспортное предприятие</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Отдел информационных технологий</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Сектор программного обеспечения</t>
-        </is>
-      </c>
+          <t>Цех по ремонту машин</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Алейникова</t>
+          <t>Досмагамбетов</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Татьяна</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Владимировна</t>
-        </is>
-      </c>
+          <t>Мурат</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>65287</t>
+          <t>3303</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Ведущий инженер-программист</t>
+          <t>Аккумуляторщик</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>780616450151</t>
+          <t>581020301495</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>fypKDIbfjEUk</t>
+          <t>UW5slr3x</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1288,77 +1359,6159 @@
           <t>false</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
       <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Управление предприятия (ЦК)</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Отдел информационных технологий</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>участок по ремонту ГПМ</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Алейников</t>
+          <t>Катарбаев</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Алексей</t>
+          <t>Темирлан</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Сандибекович</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>930839</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>940128350375</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>yZi2TWXI</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Плотникова</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Михайловна</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>6717</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Машинист РУМ</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>890403450502</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>DrRtGGbV</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ЦЗ осушение карьера</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Штенгауэр</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Александр </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Кондратьевич</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>933116</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования (в карьере)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>760226301420</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>XIuyKqxJ</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Участок группы подстанций и электросетей</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ержанов </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Темиржан </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сайлаубаевич </t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>933115</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Электромонтёр по эксплуатации распределительных сетей</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>910702350706</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Ad6cZRva</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Служба управления персоналом</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Отдел кадров</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Исмагулова</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Айнура</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Сериковна</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>933007</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Специалист по кадрам</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>910310450434</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>YflWDAtb</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>участок по ремонту сантехнического оборудования</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Мустакимов</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Тагир</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Жумабаевич</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>21185</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>581027350025</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>rTPSAfXt</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Банцевич</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Дмитрий</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>930898</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Горный  диспетчер</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>870323350386</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>30lJQfky</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Отдел стандартизации и метрологии</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Ишбердина</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Анастасия</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Александровна</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>7131</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Инженер по метрологии II категории</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>890509450896</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>5SgYUJZC</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Участок железнодорожных путей</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Матковский</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Дмитрий</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>931551</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Дорожно-путевой рабочий (в карьере)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>830217350376</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>UWdt7FcF</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Буровзрывной цех</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ЦЗ взрывной</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Моисеенко</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Андрей</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Валентинович</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>14158</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Горнорабочий</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>620919300134</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>ZHKfL1IS</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Лосев</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Викторович</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>933112</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Слесарь по обслуживанию и ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>930108350334</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>td8cQK1H</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Цех дробления и сортировки хризотиловых руд</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Участок по производству щебня</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Мустафин</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Аулехан</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Оразбекович</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>933111</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Дробильщик</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>860401350758</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>CIdobb31</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Участок подвижного состава</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Прокаев</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Виталий</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Сергеевич</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>6206</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Помощник машиниста тягового агрегата (на вывозке горной массы)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>900628350188</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>o0B6WJ88</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Участок подвижного состава</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Жакупов</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Канат</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Ермекович</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>930407</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Машинист тягового агрегата (на вывозке горной массы)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>930330350798</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>4lRQakaT</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>участок по капитальному ремонту</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Свиридов</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Вадим</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Валерьевич</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>933110</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>750430300390</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>P1CvGOSr</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Складское хозяйство АО (К)                     </t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Ахбердиев</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Турар</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Сабитбекулы</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>933109</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Грузчик</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>010319551608</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>fafQTNtV</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>участок по капитальному ремонту</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Арсентьев </t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Андрей</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Васильевич</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>933108</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>810809350688</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>t8b0C5Ki</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Пункт технического осмотра</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Переверзин</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Алексей </t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Витальевич</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>933004</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту подвижного состава</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>780103300328</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>MeTBhI01</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Пункт технического осмотра</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Прокофьев </t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сергей </t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>Александрович</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>65403</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Начальник отдела</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>933003</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту подвижного состава</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>760916350241</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>8hVdJpvw</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Участок СЦБ</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Петров</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Анатолий</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>932440</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Электромонтёр по обслуживанию и ремонту устройств сигнализации, централизации и блокировки</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>801029301016</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>4Bhl1W7Y</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Производственная лаборатория технического контроля</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Байтышева</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Мадина</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Тынышпаевна</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Лаборант асбестообогатительного производства</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>720204450120</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>QDb7nD7O</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Воскресенский</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Виталий</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>932599</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту подвижного состава</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>710831300214</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>peo3SJFF</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>участок по капитальному ремонту</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Арсентьев</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Василий</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Николаевич</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>23100</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>581021301321</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>J3aOpBri</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Пункт технического осмотра</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Спорышев</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Иван</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Александрович</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>933107</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>940611351339</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>JjfTlyLB</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Участок подвижного состава</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Жарова</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Марина</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Рагимовна</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>933106</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Нарядчик</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>служащие (пром)</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>811121400125</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>0tind1ya</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Участок группы подстанций и электросетей</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Жупанов</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Самат</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Булатович</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>931484</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Мастер подстанций обогатит.комплекса</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>руководители (пром)</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>800921300024</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Kqo3LHFVjpQJ</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>910121351042</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>qxTqGZbw</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Цех технологического транспорта</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>бульдозерный участок</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Марухненко</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Александр </t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Александрович </t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>933104</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Машинист бульдозера (в карьере)</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>690101352846</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>8AcBebVi</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Складское хозяйство АО (К)                     </t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Гуляева </t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Татьяна</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Васильевна</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>933103</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Оператор АЗС</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>701103450359</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>hx8fkS8N</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ЦЗ осушение карьера</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Данилов</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Максим </t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>933105</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования (в карьере)</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>960508350423</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>r9EnLPC9</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Укасова </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Нургуль</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Серимжановна</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>933096</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>930722451179</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>0wiOCW5H</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Производственная лаборатория технического контроля</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Казимирова </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дарья </t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Андреевна </t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>933102</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Лаборант асбестообогатительного производства</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>950528450546</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>5d2DpAKB</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Романкулова </t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Кристина </t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Александровна</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>933101</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>921111450635</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>2AKNPOel</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Отдел стандартизации и метрологии</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Белоцерковская</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Ольга</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Дмитриевна</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>933100</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Инженер по метрологии II категории</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>990430450293</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>2dOTQqh2</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Щербакова </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Надежда </t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сергеевна </t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>933099</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>840724450648</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>jpr93WdC</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Пункт технического осмотра</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Куантаев</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Салимжан</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Ердаулетович</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>932870</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту подвижного состава</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>751109300040</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>6leITOrq</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ЦЗ осушение карьера</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Плахотников</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Константин</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Андреевич</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>932202</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик (в карьере)</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>930105350457</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>kppYQvzq</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Коробков</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Дмитрий</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>932146</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту подвижного состава</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>960323351109</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Gaayigae</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>механизмы</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Смаилов</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Сексен</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Сарсенович</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>5110</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Тракторист (Т-150 в карьере)</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>581017300738</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>uLzGBnti</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>механизмы</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Балыкбаев </t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Серик </t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Мухамедгалиевич </t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>933098</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Тракторист (Т-150 в карьере)</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>740421300746</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>WV7AbTXh</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Бегалинова </t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Мадина </t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Кайратовна </t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>933097</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Машинист РУМ </t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>910228450313</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>EpYAXuAA</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>автобусы ПАЗ</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Шишкин</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Юрий</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Анатольевич</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>932888</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (ПАЗ)</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>611022350313</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>NVj4wT9v</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>дизельные автомашины</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Аманов</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Нуржан</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Жаксылыкович</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>932727</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (Газ мусоровоз)</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>670705300982</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>wLN0nDMA</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>участок по ремонту сантехнического оборудования</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Елистратов </t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Юрий </t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Валерьевич </t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>933095</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Слесарь по обслуживанию и ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>741007401841</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>QQgyqebJ</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Утарбаева </t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Карлагаш</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>КАРЖАУБАЕВНА</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>933094</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>820116451171</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Ru0bJ6Bp</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Буровзрывной цех</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>ЦЗ автотранспорт зарядный</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Машаев</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Кайырхан </t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Бахчанович</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>931848</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (Краз компрессор в карьере)</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>810709400486</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>CBtBYSDJ</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Негосударственная противопожарная служба (ЦК)                  </t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Группа обслуживания                      </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Бралина</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Асем </t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Муратовна </t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>933093</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Инженер по пожарной безопасности</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>780223403679</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>afc37RR1</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Ивченко</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Анна</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Павловна</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>932230</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Машинист крана (крановщик мостового крана)</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>820311450639</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Y6OEF2gP</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Лосева</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Ксения</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Павловна</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>28057</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Оператор пульта управления</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>790527402447</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>VLPhyULq</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Грядовкин</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Игорь</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Алексеевич</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>933092</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Токарь</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>720806350335</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>yyDP9s1Z</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Отдел по экономике и развитию</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Цыгулева</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Анна</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Венедиктовна</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>932067</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Экономист по труду</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>930219450720</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>f4Xru2bn</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Участок добычи</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Мынжасаров</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Кайырхан</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Кайратович</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>931691</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Помощник машиниста экскаватора (в карьере)</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>940927350507</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>qx0CTHs6</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Пластовец</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Денис</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Николаевич</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>10908</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Ведущий инженер по ТОиР</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>810224350390</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>QK0QYI8p</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Филиал  АО"Костанайские минералы" г. Алматы</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Курбанова</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Рукиям</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Розиевна</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>000007897</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Уборщик служебных помещений</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>640325402479</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>5b7Xg4iz</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Отдел по экономике и развитию</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Ерёменко</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Дмитрий</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Юрьевич</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>933090</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Ведущий экономист по планированию и анализу</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>780715301086</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>elBYce7V</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Служба управления делами</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Бассейн "Алма-Ата"</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Альмухамедов</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Ермек</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нуртазаевич </t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>933091</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Сторож</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>рабочие (непром)</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>691116350140</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>LEYeMFRp</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Бурамбаев</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Мирас</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Серимжанович</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>932669</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Слесарь по обслуживанию и ремонту оборудования (в карьере)</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>960915350525</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>MNIzieZ4</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Кисель</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Вячеслав</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>932607</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Слесарь по обслуживанию и ремонту оборудования (в карьере)</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>850325350208</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>a19BRlSa</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Филиал  АО"Костанайские минералы" г. Алматы</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Лоц</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Анастасия</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Анатольевна</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>931679</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Уборщик помещений</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>рабочие (непром)</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>891211400505</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>kGqGQjM3</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Служба автоматизации</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Экспериментально-конструкторская группа</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Сыздыкова</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Жания</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Исмагуловна</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>933089</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Инженер по автоматизации</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>960920450261</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Fi17k4OV</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Участок тепловодоснабжения</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Колеснюк </t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Евгения</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сергеевна </t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>933088</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Оператор котельной </t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>010424650305</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>pzD9k8kl</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Цех дробления и сортировки хризотиловых руд</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>производственно-техническая служба ЦДиСХР</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Штро</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Артур</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Яковлевич</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>931949</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Слесарь по обслуживанию и ремонту оборудования (сменный персонал)</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>901119351384</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>qJkKD4G7</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Цех дробления и сортировки хризотиловых руд</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>ремонт и содержание ЦДиСХР</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Тлекешов</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Арслан</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Жагпарович</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>7321</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Слесарь по обслуживанию и ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>891201351122</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>r2BNhWNI</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Участок отвалообразования</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Жаримбетов</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Адиль</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Шуакбаевич</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>933087</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Помощник машиниста экскаватора (породных отвалов)</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>940806350658</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>12xxahTV</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Цех технологического транспорта</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>ремонтный персонал</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Шегреев</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Мейрам</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Рахимбаевич </t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>933058</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту автомобилей (БелАЗ)</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>960417351318</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>PgBYAqVp</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Служба автоматизации</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Экспериментально-конструкторская группа</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Кислицын</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Антон</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Сергеевич</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>931296</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Инженер по автоматизации производства I категории</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>921203350629</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>wKBhQe4O</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Участок тепловодоснабжения</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Якунин</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Евгений</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Анатольевич</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>11695</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Мастер электромеханик</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>руководители (пром)</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>640719300130</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>6aD2UB2H</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Участок тепловодоснабжения</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Медюхо</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Вячеслав </t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Васильевич </t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>933086</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Электромонтер по ремонту и обслуживанию электрооборудования</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>970522350917</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>twSYdqS0</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>участок вулканизации лент</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Губенко</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Андрей</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Валерьевич</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>933084</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>971118351054</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>iLYlUwB1</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Пункт технического осмотра</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Оконешников</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Сергей</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Иванович</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>932066</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту подвижного состава</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>700709350413</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>M77WSkjN</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>ремонтники ЦО</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Новиков</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Дмитрий</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Вячеславович</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>931082</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Механик</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>810728300522</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>lgDw5WhL</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Технический отдел</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Мубаракшина</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Наталья</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>28475</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Инженер-технолог</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>700120400540</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>JVAzlYsp</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Служба управления делами</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Стадион "Горняк"</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Хлюстова</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Галина</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Степановна</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>7122</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Рабочий по комплексному обслуживанию</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>рабочие (непром)</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>611003450019</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>MRfPfMgE</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Служба управления делами</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Стадион "Горняк"</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Мусинова </t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Алмагуль</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Гайсаевна </t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>933085</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Рабочий по комплексному обслуживанию</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>рабочие (непром)</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>771110450032</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>54onxx0q</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>дизельные автомашины</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Кусаинов</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Марат</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Толеуханович</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>932569</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (Камаз вахтовка в карьере сменный)</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>770616301254</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>RJYBMvp5</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ремонтники ЦО</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Поветкин</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Александрович</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>931626</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>940427351150</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>4dnxF8xa</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Аношкина</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Ирина</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Борисовна</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>28031</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>611001401017</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>w9tQydc5</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>ЦЗ осушение карьера</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Ермошин</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Николай</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Николаевич</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>5438</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования (в карьере)</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>581001350787</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>zIBZdZaj</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Участок по эксплуатации электросетей в карьере</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Байменов</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Адиль</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Байменович</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>932714</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Электромонтер-линейщик по монтажу воздушных линий высокого напряжения и контактной сети (в карьере)</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>001001550700</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>pvYynyto</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/web-platform_22_01_dev/static/media/admin/account/export_users.xlsx
+++ b/web-platform_22_01_dev/static/media/admin/account/export_users.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,94 +516,7910 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Управление</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Участок железнодорожных путей</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Мицкий</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Николай</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Карлович</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>933187</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Дорожно-путевой рабочий (в карьере)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>620912350310</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>W4STGz0I</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Цех по ремонту машин</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Курмангалиев</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Асылжан</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Канатович</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>933186</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту автомобилей</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>010519550657</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>EReGqBER</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Цех технологического транспорта</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ремонтный персонал</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Домнышев</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Александрович</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>933185</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту автомобилей (БелАЗ)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>010404550443</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>vSEG5nDT</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Участок по ремонту электромеханического оборудования</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Орлов</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Иван</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Николаевич</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>933027</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик (в карьере)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>900729350464</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>G0BsyfUS</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Участок тепловодоснабжения</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Васюкова </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Надежда</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сергеевна </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>933181</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Оператор котельной </t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>881219451195</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>hHx4EcyS</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Участок эксплуатации</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Крыкпаева </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Алуа </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Тулегеновна</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>933182</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Оператор поста централизации</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>960716450430</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>WCytc3su</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>карбюраторные автомашины</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Шиндаулетов</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Сагындык</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Куандыкович</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>933183</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (Уаз в карьере)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>940110301418</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nbsnQtK3</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Цех технологического транспорта</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>бульдозерный участок</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Айсаринов</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Аслан</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Маратович</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>932664</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Машинист бульдозера (в карьере)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>000607550564</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>qkRKnJxu</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Силифонов</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Николай</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Сергеевич</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3436</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Начальник </t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>руководители (пром)</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>860401350282</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Y126WtAJ</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>легковые автомашины</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Фоманчев</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Денис</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Вадимович</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4293</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (Уаз 390945-360)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>870408350173</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>XoR6YRvs</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Участок эксплуатации</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Сайферт</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Юлия</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Сергеевна</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>933178</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Оператор поста централизации</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>880603450344</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>t6cMFHda</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Участок эксплуатации</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Бондарева </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Анастасия</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Васильевна</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>933180</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Оператор поста централизации</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>000530651590</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>lDcPFdHO</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Участок отвалообразования</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Степанов </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Андрей</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Андреевич</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>931411</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Помощник машиниста экскаватора (пыльных отвалов)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>960210350304</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>DnbhfTVb</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Мирманов</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Бахытжан</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Сейтжанович</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>932393</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту подвижного состава</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>960127351202</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>YSY91sBw</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Цех технологического транспорта</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>бульдозерный участок</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ташманкулов </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Ирлан</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Тулепбергенович</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>932071</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Машинист бульдозера (в карьере)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>760403300315</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>GeSUL1YW</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Негосударственная противопожарная служба (ЦК)                  </t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дежурные караулы                         </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Орунбаев</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Алмас</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Серикович</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>931193</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Пожарный</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>910302350721</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>UEBJsLo1</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Участок подвижного состава</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Нэйв</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Любовь </t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Исенкельдиновна</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>933179</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Нарядчик</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>служащие (пром)</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>940822450493</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>JzY9QpQT</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Складское хозяйство АО (К)                     </t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Асанов </t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Акылхан</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Жарилкасинович</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>932070</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Грузчик</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>910909301832</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>i0BUeRI1</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ремонтники ЦО</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Кулназаров</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Бакытжан</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Рысбекович</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>930470</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Слесарь по обслуживанию и ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>760623399063</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>kuANoQxB</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Участок группы подстанций и электросетей</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Шадрина</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Оксана</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Владимировна</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>933177</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Электромонтёр по обслуживанию подстанции</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>990913450774</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2csAFdRC</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Участок тепловодоснабжения</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Колеснюк </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Евгения</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сергеевна </t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>933088</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Оператор котельной </t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>010424650305</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>srJ7Vuic</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Служба охраны труда и промышленной безопасности</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>здравпункты</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сагандыкова </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Айслу</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Амангильдиновна</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>933176</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Санитарка здравпункта ОК</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>рабочие (непром)</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>830409450910</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>I0lHqJt6</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Участок тепловодоснабжения</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Мартынюк</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Асия</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Шакировна</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>931677</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Оператор котельной </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>820312450258</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>46zVxGUk</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Участок отвалообразования</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Иманов</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Марат</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Куанышбаевич</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2158</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Помощник машиниста экскаватора (породных отвалов)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>760416300920</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>rTXE6jhJ</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Участок тепловодоснабжения</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Иманбаева</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Шолпан</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Саржановна</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>61419</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Оператор котельной </t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>611116400087</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>rFLPSCSI</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Цех дробления и сортировки хризотиловых руд</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>производственно-техническая служба ЦДиСХР</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Алдабергенов</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Алмаз</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Аскарович</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>931357</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Дробильщик</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>841022350162</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>7B70bsu4</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Участок группы подстанций и электросетей</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Ротенберг</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Сергей</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Викторович</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>67067</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Электромонтёр по эксплуатации распределительных сетей</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>670814350327</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2A2TZ1kH</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>автобусы ПАЗ</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Пастерук</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Николай</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Леонидович</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>84150</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (ПАЗ)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>610328300526</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>2uzaiADz</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>участок по ремонту сантехнического оборудования</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Шарипов</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Николай</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Евгеньевич</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>932093</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>980503350271</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>W5zGpJRH</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Цех технологического транспорта</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>бульдозерный участок</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Тасбулатов</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Азат</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Аманбаевич</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>933175</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Машинист бульдозера (в карьере)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>860130350705</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>tAsIF3cV</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>общецеховой</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Бурубаев</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Валихан</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Муратович</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>932186</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Слесарь по обслуживанию и ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>910922350336</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Ye1fed2J</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>механизмы</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Канафин</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Талгат</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Раипович</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>6417</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Тракторист (Т-150 в карьере)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>660905300224</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>AWxaCCzX</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>автобусы ПАЗ</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Лопатин</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Сергей</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Дмитриевич</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>6432</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (ПАЗ)</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>621015300291</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>j8Gowcy4</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Складское хозяйство АО (К)                     </t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Гуляева </t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Татьяна</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Васильевна</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>933103</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Оператор АЗС</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>701103450359</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>9LwQFuFU</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>механизмы</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Балыкбаев </t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Серик </t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Мухамедгалиевич </t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>933098</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Машинист бульдозера (К-701 в карьере)</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>740421300746</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>4nue9ant</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Участок добычи</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Скаржинский</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Викторович</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>932634</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Помощник машиниста экскаватора (в карьере)</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>951130350747</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>MnyEaduX</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Романкулов</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Асан</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Галимжанович</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>7529</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Регулировщик асбестообогатительного оборудования</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>881114350259</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>UXtUfkdN</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Цех технологического транспорта</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ремонтный персонал</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Боровских</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Павлович</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>933173</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>910730350500</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>dSZXfHMi</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Служба управления делами</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Бассейн "Алма-Ата"</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Калиахметов</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Нурбек</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Нурланович</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>933174</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Инструктор тренажерного зала</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>специалисты (непром)</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>931211350278</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1Myo3tMo</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ЦЗ УММ</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Зыков</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Денис</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Валерьевич</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>933051</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Машинист железнодорожно-строительных (путевых) машин</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>870621350339</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>MXAQCBhM</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Цех по ремонту машин</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Масольд</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Артур</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>932993</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту автомобилей</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>020926551362</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>aPnBNi2D</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Участок группы подстанций и электросетей</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Исаков</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Вадим</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>933171</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Электромонтёр по эксплуатации распределительных сетей</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>740617301284</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>50fZE8Oy</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Буровзрывной цех</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>ЦЗ автотранспорт зарядный</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Ризванов</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Рим</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Графович</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>933168</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (Краз компрессор в карьере)</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>600705300484</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>09TaWqr4</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Участок добычи</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Лукомский</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Сергей</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Дмитриевич</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>933167</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Помощник машиниста экскаватора (в карьере)</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>720528350473</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>VHjEXW5M</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ремонтники ЦО</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Пономарев</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Сергей</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Александрович</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>933172</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>760816350377</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>0kRvFdez</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>механизмы</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Туркестанов</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Мейрамбек</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Кенгереевич</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>933170</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Машинист бульдозера (К-701 в карьере)</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>781109350210</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>8C9j0OIr</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Участок тепловодоснабжения</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Соляник </t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Константин</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Евгеньевич</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>933166</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Электромонтер по ремонту и обслуживанию электрооборудования</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>951017350673</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ejsMBnJa</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ремонтники ЦО</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Дуйсекеев</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Самат</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Туретаевич</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>932153</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>900310351206</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Cj7ZMoEW</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Служба управления делами</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Мукатова </t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Айнура</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Ыбраевна</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>933184</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Курьер</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>900101451038</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>NPZPQW7q</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Бородин</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Анатолий</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Валерьевич</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>933163</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Аккумуляторщик</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>950715350178</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>99FaLR5n</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Производственная лаборатория технического контроля</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Гречущева</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Ульяна</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Александровна</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>933165</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Контролер продукции обогащения</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>810126450770</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>0KCv8Hj1</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Участок группы подстанций и электросетей</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Ильин</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Виталий </t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Александрович </t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>933040</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>710609350322</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>4J4UP1Ya</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Участок группы подстанций и электросетей</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Заминов</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Юрий</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Рахимжанович</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>3635</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>581204300477</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>38KYqH3V</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Цех дробления и сортировки хризотиловых руд</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>производственно-техническая служба ЦДиСХР</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Михеева</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Людмила</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Ивановна</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>933164</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>700310401749</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Q0or5dWH</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Служба управления персоналом</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Отдел кадров</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Беркимбаева</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Куралай</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Тлектесовна</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>933143</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Специалист по кадрам</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>750615450488</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>0wEB36Y3</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Цех дробления и сортировки хризотиловых руд</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>сушка руды</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Поздняков</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Сергей</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Николаевич  </t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>4853</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Сушильщик</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>581201300679</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>o9U5BMhj</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Гаас</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Ирина</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Александровна</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>933161</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>971009450243</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>MKipNqKB</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Досанова</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Жанна</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Букарбаевна</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>933160</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>810608450790</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>MW74aSdb</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Служба управления делами</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Стадион "Горняк"</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Альмухамедов</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Ермек</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Нуртазаевич</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>933159</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Рабочий по комплексному обслуживанию</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>рабочие (непром)</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>691116350140</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>qSlvX0FZ</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Жумагалиева</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Маржан</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Фазыловна</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>28192</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Дробильщик</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>611121450184</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>7wDbLdvz</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>легковые автомашины</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Колоусов</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Валерий</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Николаевич</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>84032</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (Hyundai Н350 сменный)</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>620310350249</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>UseB4jzK</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>легковые автомашины</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Майданкин</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Сергей</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Васильевич</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>84052</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (Hyundai Н350 сменный)</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>660401300422</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>JrDWAEXp</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ремонтники ЦО</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Лескин</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Андрей</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>28357</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Слесарь по обслуживанию и ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>740609300513</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>gohniXGy</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>легковые автомашины</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Нурмагамбетов</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Талгат</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Ерикович</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>5939</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (Hyundai Н350 сменный)</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>790309350099</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>UjkL11Hx</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Участок эксплуатации</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Бакенова</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Наиля</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Шамильевна</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>6093</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Оператор поста централизации</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>811021450841</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>JpXDadXr</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>легковые автомашины</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Пругло</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Вадим</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Валентинович</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>931518</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (Hyundai Н350 сменный)</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>671203301171</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>sEIYgxki</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>легковые автомашины</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Дабижа</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Алексей</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Евгеньевич</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>930489</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (Hyundai Н350 сменный)</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>851207350050</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>9vfEvjBd</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Аймуратова</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Наталья</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Александровна</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>933153</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>830326450963</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>GQfwO4AW</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Отдел управления проектами и бережливого производства</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Бекмуратов</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Райымбек</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Усербайулы</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>933066</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Менеджер</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>910721301266</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>RwTXaGzO</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Служба управления делами</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Бассейн "Алма-Ата"</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Утебаева</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Разия</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Шауатовна</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>932813</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Уборщик производственных и служебных помещений</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>рабочие (непром)</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>611130450258</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>SAYzUgEF</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Чипига</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Юля</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Владимировна</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>933157</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Дробильщик</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>910124450364</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>pQsZK4VR</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Коваленко</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Наталья</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Ивановна</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>933158</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>890528451164</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>aridb1ls</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Цех технологического транспорта</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>вывозка г/м БелАЗ</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Лаптев</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Олег</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Леонидович</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>932309</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (БелАЗ-7555 на вывозке горной массы в карьере)</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>870815350443</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>jNLsaGLz</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>дизельные автомашины</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Орынтаев </t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Абылкан</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Абубакирович </t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>933162</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (Газ мусоровоз)</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>811117399126</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>4AFIofSw</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Отдел горного планирования и мониторинга</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Асылбеков</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Серик</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Ербулатович</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>933156</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Инженер-технолог</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>000825550262</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>NCsfOH3D</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Участок СЦБ</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Цыгель</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Сергей</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Валентинович</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>933155</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Электромонтёр по обслуживанию и ремонту устройств сигнализации, централизации и блокировки</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>741215300602</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>vYE2GUdp</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Капышев</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Берик</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Жангельдинович</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>933154</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту подвижного состава</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>961110350918</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>QWSdEP5P</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Сергазинова</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Анастасия </t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Александровна</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>932551</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Машинист РУМ</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>830102451117</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>w0k5hFQV</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>ремонтники ЦО</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Подгорный</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Никита</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Дмитриевич</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>932524</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>000118551039</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>a1XEBXPH</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Цех технологического транспорта</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>вывозка г/м БелАЗ</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Сисембин</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Асан</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Бикетович</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>931728</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (БелАЗ на вывозке горной массы в карьере)</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>900820350855</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>ZGkXSOJR</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Негосударственная противопожарная служба (ЦК)                  </t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дежурные караулы                         </t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Кореньков</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Олег</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>6221</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Пожарный</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>790516300226</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>nu2lrq53</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Пункт технического осмотра</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Ержанбаев</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Малик</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Сапарович</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>933150</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту подвижного состава</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>681107301022</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>drh88jfL</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Митина</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Ирина</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Владимировна</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>933151</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>800610400961</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>SEIoG4Yz</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Служба автоматизации</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Группа весового хозяйства</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Шаяхметов</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Азат</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Игиликович</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>933152</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования (ОК)</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>960307351082</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>jH2sIxhI</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>участок по капитальному ремонту</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Дочупайло</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Денис</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Николаевич</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>931948</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>841020350627</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>uxvsyj4E</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Участок связи</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Мирманова </t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Аягоз</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Каркановна</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>932149</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Электромонтер линейных сооружений электросвязи и проводного вещания</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>950419450464</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>UAeBPd1J</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Участок подвижного состава</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Скоробогатов</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Дмитрий</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2061</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Машинист тепловоза</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>720502300118</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>PMuKMqxh</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Участок тепловодоснабжения</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Чигрин</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Викторович</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>932587</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>850115350107</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>VYdiIi4v</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
           <t>Отдел информационных технологий</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Сектор системного обеспечения</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Тетенков</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Вячеслав</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Алексеевич</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>65047</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Инженер I  категории (системный)</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>730929301615</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>0WHl7a6sbpya</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Сектор системного обеспечения</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Стулов</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Андрей</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Андреевич</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>931901</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Инженер I категории (системный администратор, администратор баз данных)</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>850227350285</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>wb8FxswzQqOp</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
         <is>
           <t>Сектор программного обеспечения</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Рожкова</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Наталья</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Георгиевна</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>65020</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Инженер-программист I категории</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>771123400344</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>r5nbUc1uigON</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Сектор программного обеспечения</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Пышный</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Виктор</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Юрьевич</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>4405</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Инженер-программист I категории</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>831127350161</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>LkvSKOEkpTwU</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Сектор технического обеспечения</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Полозюк</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Владимир</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Анатольевич</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>65086</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Техник вычислительного центра</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>650414350253</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>BbkF3MBVU9Qn</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Сектор технического обеспечения</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Мозырев</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Антон</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Юрьевич</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>932423</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Инженер - электронщик</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>880903351312</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>rxTE89kLgypG</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Сектор системного обеспечения</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Малышев</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Руслан</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Александрович</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>930275</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Инженер-системотехник</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>881223350281</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>ipJ1ZG6O43Jg</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Сектор программного обеспечения</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Драница</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Ирина</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Сергеевна</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>3135</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Инженер-программист I категории</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>810109400464</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Sj4sSDv7FTfT</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Сектор технического обеспечения</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Вахонин</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Сергеевич</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>931962</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Инженер - электронщик</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>910315350415</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Yt44lSPJUlDr</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Сектор программного обеспечения</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>Андриенко</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>Богдан</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>Николаевич</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>931777</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>Техник-программист</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Инженерно-технический работник</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
         <is>
           <t>970801351179</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>31284bogdan</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>It7qfRidW76q</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
         <is>
           <t>bogdandrienko@gmail.com</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>user</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
         <is>
           <t>2+2?</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="R99" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Сектор программного обеспечения</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Алейникова</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Татьяна</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Владимировна</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>65287</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Ведущий инженер-программист</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>780616450151</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>fypKDIbfjEUk</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Алейников</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Алексей</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Александрович</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>65403</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Начальник отдела</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>руководители (пром)</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>800921300024</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Kqo3LHFVjpQJ</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
